--- a/Phenoloxidase Activity data/22. AEG 22 (91154).xlsx
+++ b/Phenoloxidase Activity data/22. AEG 22 (91154).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="4" r:id="rId1"/>
-    <sheet name="1 " sheetId="14" r:id="rId2"/>
+    <sheet name="1" sheetId="15" r:id="rId2"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -166,6 +172,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,7 +209,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -407,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237178176"/>
-        <c:axId val="237177392"/>
+        <c:axId val="244081000"/>
+        <c:axId val="244080216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237178176"/>
+        <c:axId val="244081000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,12 +474,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237177392"/>
+        <c:crossAx val="244080216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237177392"/>
+        <c:axId val="244080216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237178176"/>
+        <c:crossAx val="244081000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -594,7 +600,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -799,11 +804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237175824"/>
-        <c:axId val="237177000"/>
+        <c:axId val="244081392"/>
+        <c:axId val="244078648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237175824"/>
+        <c:axId val="244081392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,12 +865,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237177000"/>
+        <c:crossAx val="244078648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237177000"/>
+        <c:axId val="244078648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237175824"/>
+        <c:crossAx val="244081392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -986,7 +991,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1191,11 +1195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237178960"/>
-        <c:axId val="237176216"/>
+        <c:axId val="244079432"/>
+        <c:axId val="245236608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237178960"/>
+        <c:axId val="244079432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,12 +1256,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237176216"/>
+        <c:crossAx val="245236608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237176216"/>
+        <c:axId val="245236608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237178960"/>
+        <c:crossAx val="244079432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1455,8 +1459,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17371587926509185"/>
-                  <c:y val="9.2045785943423739E-4"/>
+                  <c:x val="-0.42527143482064744"/>
+                  <c:y val="0.2012325021872266"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1491,7 +1495,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$4:$N$14</c:f>
+              <c:f>'1'!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1533,42 +1537,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$4:$O$14</c:f>
+              <c:f>'1'!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-9.5899979273478264E-2</c:v>
+                  <c:v>1.6172000169754028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.5133363405863518E-2</c:v>
+                  <c:v>1.632099986076355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8466711044311523E-2</c:v>
+                  <c:v>1.6892999410629272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5599937438964844E-2</c:v>
+                  <c:v>1.7468999624252319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1122666597366333</c:v>
+                  <c:v>1.8104000091552734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16536660989125562</c:v>
+                  <c:v>1.8645999431610107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21353336175282789</c:v>
+                  <c:v>1.9101999998092651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2504000266393025</c:v>
+                  <c:v>1.9470000267028809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28043333689371752</c:v>
+                  <c:v>1.9771000146865845</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31873325506846117</c:v>
+                  <c:v>2.0139999389648437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3248666524887085</c:v>
+                  <c:v>2.0199999809265137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,11 +1587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237538384"/>
-        <c:axId val="237537600"/>
+        <c:axId val="245239352"/>
+        <c:axId val="245231904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237538384"/>
+        <c:axId val="245239352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,12 +1648,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237537600"/>
+        <c:crossAx val="245231904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237537600"/>
+        <c:axId val="245231904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237538384"/>
+        <c:crossAx val="245239352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1847,8 +1851,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36816032370953633"/>
-                  <c:y val="0.12025189559638379"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.17087962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1883,7 +1887,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$19:$N$29</c:f>
+              <c:f>'1'!$N$19:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1925,42 +1929,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$19:$O$29</c:f>
+              <c:f>'1'!$O$19:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.5700062115987068E-2</c:v>
+                  <c:v>1.7288000583648682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6566665967305427E-2</c:v>
+                  <c:v>1.7738000154495239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8733325004577637E-2</c:v>
+                  <c:v>1.7864999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.739995002746582E-2</c:v>
+                  <c:v>1.7986999750137329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11336660385131836</c:v>
+                  <c:v>1.8114999532699585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13096662362416578</c:v>
+                  <c:v>1.8301999568939209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15843339761098219</c:v>
+                  <c:v>1.8551000356674194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18099995454152418</c:v>
+                  <c:v>1.8775999546051025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20183328787485766</c:v>
+                  <c:v>1.8984999656677246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22863332430521655</c:v>
+                  <c:v>1.9239000082015991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2494666576385498</c:v>
+                  <c:v>1.944599986076355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,11 +1979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237533288"/>
-        <c:axId val="237537992"/>
+        <c:axId val="245233472"/>
+        <c:axId val="245232688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237533288"/>
+        <c:axId val="245233472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,12 +2040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237537992"/>
+        <c:crossAx val="245232688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237537992"/>
+        <c:axId val="245232688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,7 +2102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237533288"/>
+        <c:crossAx val="245233472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2239,8 +2243,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30924365704286966"/>
-                  <c:y val="3.2376786235053953E-2"/>
+                  <c:x val="-0.44871587926509188"/>
+                  <c:y val="0.23767862350539515"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2275,7 +2279,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$35:$N$45</c:f>
+              <c:f>'1'!$N$35:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2317,42 +2321,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$35:$O$45</c:f>
+              <c:f>'1'!$O$35:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.5199969609578377E-2</c:v>
+                  <c:v>1.7382999658584595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.016666730244947E-2</c:v>
+                  <c:v>1.777400016784668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11383330821990967</c:v>
+                  <c:v>1.8215999603271484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17250001430511475</c:v>
+                  <c:v>1.8738000392913818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21546661853790283</c:v>
+                  <c:v>1.913599967956543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25056668122609449</c:v>
+                  <c:v>1.9498000144958496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29733331998189283</c:v>
+                  <c:v>1.9939999580383301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33789988358815504</c:v>
+                  <c:v>2.0344998836517334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37653330961863207</c:v>
+                  <c:v>2.073199987411499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42053321997324633</c:v>
+                  <c:v>2.1157999038696289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45806658267974854</c:v>
+                  <c:v>2.1531999111175537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,11 +2371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237532896"/>
-        <c:axId val="237534856"/>
+        <c:axId val="245235040"/>
+        <c:axId val="245237000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237532896"/>
+        <c:axId val="245235040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2432,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237534856"/>
+        <c:crossAx val="245237000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237534856"/>
+        <c:axId val="245237000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237532896"/>
+        <c:crossAx val="245235040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2631,8 +2635,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32371587926509188"/>
-                  <c:y val="8.7546296296296303E-2"/>
+                  <c:x val="-0.28727537182852142"/>
+                  <c:y val="3.1990740740740743E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2667,7 +2671,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$51:$N$61</c:f>
+              <c:f>'1'!$N$51:$N$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2709,42 +2713,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$51:$O$61</c:f>
+              <c:f>'1'!$O$51:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.6300004323323494E-2</c:v>
+                  <c:v>1.7694000005722046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8466595013936287E-2</c:v>
+                  <c:v>1.8056999444961548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12673330307006836</c:v>
+                  <c:v>1.8344999551773071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15909993648529053</c:v>
+                  <c:v>1.8603999614715576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19286668300628662</c:v>
+                  <c:v>1.8910000324249268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21746667226155592</c:v>
+                  <c:v>1.916700005531311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25323339303334547</c:v>
+                  <c:v>1.9499000310897827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28389998277028394</c:v>
+                  <c:v>1.9804999828338623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31543330351511645</c:v>
+                  <c:v>2.0120999813079834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35023335615793871</c:v>
+                  <c:v>2.0455000400543213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38036668300628662</c:v>
+                  <c:v>2.0755000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,11 +2763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237536424"/>
-        <c:axId val="237531720"/>
+        <c:axId val="245236216"/>
+        <c:axId val="245237392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237536424"/>
+        <c:axId val="245236216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,12 +2824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237531720"/>
+        <c:crossAx val="245237392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237531720"/>
+        <c:axId val="245237392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237536424"/>
+        <c:crossAx val="245236216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3023,8 +3027,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14871587926509186"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-0.4437992125984252"/>
+                  <c:y val="0.25847149314668999"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3059,7 +3063,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$68:$N$78</c:f>
+              <c:f>'1'!$N$68:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3101,42 +3105,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$68:$O$78</c:f>
+              <c:f>'1'!$O$68:$O$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.8999856313068921E-3</c:v>
+                  <c:v>1.718999981880188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8866680463155037E-2</c:v>
+                  <c:v>1.7861000299453735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12183332443237305</c:v>
+                  <c:v>1.8295999765396118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17499995231628418</c:v>
+                  <c:v>1.8762999773025513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23046660423278809</c:v>
+                  <c:v>1.9285999536514282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27436669667561842</c:v>
+                  <c:v>1.9736000299453735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32683332761128736</c:v>
+                  <c:v>2.0234999656677246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37210007508595777</c:v>
+                  <c:v>2.0687000751495361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4152334133783977</c:v>
+                  <c:v>2.1119000911712646</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45703319708506274</c:v>
+                  <c:v>2.1522998809814453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49156677722930908</c:v>
+                  <c:v>2.1867001056671143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +3155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237536816"/>
-        <c:axId val="237532112"/>
+        <c:axId val="245238176"/>
+        <c:axId val="245238568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237536816"/>
+        <c:axId val="245238176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,12 +3216,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237532112"/>
+        <c:crossAx val="245238568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237532112"/>
+        <c:axId val="245238568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,7 +3278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237536816"/>
+        <c:crossAx val="245238176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3415,8 +3419,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22927143482064741"/>
-                  <c:y val="4.8599810440361622E-2"/>
+                  <c:x val="-0.34535476815398075"/>
+                  <c:y val="0.21254629629629629"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3451,7 +3455,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$85:$N$95</c:f>
+              <c:f>'1'!$N$85:$N$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3493,42 +3497,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$85:$O$95</c:f>
+              <c:f>'1'!$O$85:$O$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-6.6000024477640862E-2</c:v>
+                  <c:v>1.6470999717712402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.6233345667521233E-2</c:v>
+                  <c:v>1.6710000038146973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6466617584228516E-2</c:v>
+                  <c:v>1.6913000345230103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4099946022033691E-2</c:v>
+                  <c:v>1.7253999710083008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1866641044616699E-2</c:v>
+                  <c:v>1.7599999904632568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10016663869221998</c:v>
+                  <c:v>1.7993999719619751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14133342107137037</c:v>
+                  <c:v>1.8380000591278076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18119998772939039</c:v>
+                  <c:v>1.8777999877929687</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2175332705179851</c:v>
+                  <c:v>1.9141999483108521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25173334280649828</c:v>
+                  <c:v>1.9470000267028809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28326666355133057</c:v>
+                  <c:v>1.9783999919891357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,11 +3547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237535248"/>
-        <c:axId val="237534072"/>
+        <c:axId val="245233080"/>
+        <c:axId val="245234256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237535248"/>
+        <c:axId val="245233080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,12 +3608,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237534072"/>
+        <c:crossAx val="245234256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237534072"/>
+        <c:axId val="245234256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237535248"/>
+        <c:crossAx val="245233080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9636,8 +9640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9695,194 +9699,91 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-9.5899979273478264E-2</v>
+        <f>B6</f>
+        <v>1.6172000169754028</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.7968000173568726</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.8123999834060669</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.8130999803543091</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.7970000505447388</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.794700026512146</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.7969000339508057</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.7950999736785889</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.7973999977111816</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.801300048828125</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.7972999811172485</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.7989000082015991</v>
-      </c>
       <c r="N5" s="2">
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>-7.5133363405863518E-2</v>
+        <f>C6</f>
+        <v>1.632099986076355</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.5858999490737915</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.5561000108718872</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.5663000345230103</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.5677000284194946</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.5664000511169434</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.5680999755859375</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.5635999441146851</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.5595999956130981</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.5561000108718872</v>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1.6172000169754028</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:L6" si="0">C4</f>
+        <v>1.632099986076355</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6892999410629272</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7468999624252319</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8104000091552734</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8645999431610107</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9101999998092651</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9470000267028809</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9771000146865845</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0139999389648437</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0199999809265137</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>-1.8466711044311523E-2</v>
+        <f>D6</f>
+        <v>1.6892999410629272</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.756600022315979</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.7532000541687012</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.743899941444397</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.7391999959945679</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.7332999706268311</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.732699990272522</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.7312999963760376</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.7328000068664551</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.7317999601364136</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.7316000461578369</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.7303999662399292</v>
-      </c>
       <c r="N7" s="2">
         <v>9</v>
       </c>
       <c r="O7" s="2">
-        <v>4.5599937438964844E-2</v>
+        <f>E6</f>
+        <v>1.7468999624252319</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B4-(AVERAGE(B5:B7))</f>
-        <v>-9.5899979273478264E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:L8" si="0">C4-(AVERAGE(C5:C7))</f>
-        <v>-7.5133363405863518E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.8466711044311523E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5599937438964844E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1122666597366333</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16536660989125562</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21353336175282789</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2504000266393025</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28043333689371752</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.31873325506846117</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3248666524887085</v>
-      </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <v>0.1122666597366333</v>
+        <f>F6</f>
+        <v>1.8104000091552734</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9890,7 +9791,8 @@
         <v>15</v>
       </c>
       <c r="O9" s="2">
-        <v>0.16536660989125562</v>
+        <f>G6</f>
+        <v>1.8645999431610107</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9898,7 +9800,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="2">
-        <v>0.21353336175282789</v>
+        <f>H6</f>
+        <v>1.9101999998092651</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9906,7 +9809,8 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>0.2504000266393025</v>
+        <f>I6</f>
+        <v>1.9470000267028809</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9914,7 +9818,8 @@
         <v>24</v>
       </c>
       <c r="O12" s="2">
-        <v>0.28043333689371752</v>
+        <f>J6</f>
+        <v>1.9771000146865845</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9922,7 +9827,8 @@
         <v>27</v>
       </c>
       <c r="O13" s="2">
-        <v>0.31873325506846117</v>
+        <f>K6</f>
+        <v>2.0139999389648437</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9930,8 +9836,12 @@
         <v>30</v>
       </c>
       <c r="O14" s="2">
-        <v>0.3248666524887085</v>
-      </c>
+        <f>L6</f>
+        <v>2.0199999809265137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -9974,194 +9884,91 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>1.5700062115987068E-2</v>
+        <f>B21</f>
+        <v>1.7288000583648682</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.7968000173568726</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.8123999834060669</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.8130999803543091</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.7970000505447388</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.794700026512146</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.7969000339508057</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.7950999736785889</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.7973999977111816</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.801300048828125</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.7972999811172485</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.7989000082015991</v>
-      </c>
       <c r="N20" s="2">
         <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>6.6566665967305427E-2</v>
+        <f>C21</f>
+        <v>1.7738000154495239</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.5858999490737915</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.5561000108718872</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.5663000345230103</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.5677000284194946</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.5664000511169434</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.5680999755859375</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.5635999441146851</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.5595999956130981</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.5561000108718872</v>
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B19</f>
+        <v>1.7288000583648682</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:L21" si="1">C19</f>
+        <v>1.7738000154495239</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7864999771118164</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7986999750137329</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8114999532699585</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8301999568939209</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8551000356674194</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8775999546051025</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8984999656677246</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9239000082015991</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.944599986076355</v>
       </c>
       <c r="N21" s="2">
         <v>6</v>
       </c>
       <c r="O21" s="2">
-        <v>7.8733325004577637E-2</v>
+        <f>D21</f>
+        <v>1.7864999771118164</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.756600022315979</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.7532000541687012</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.743899941444397</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.7391999959945679</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.7332999706268311</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.732699990272522</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.7312999963760376</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.7328000068664551</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.7317999601364136</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.7316000461578369</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.7303999662399292</v>
-      </c>
       <c r="N22" s="2">
         <v>9</v>
       </c>
       <c r="O22" s="2">
-        <v>9.739995002746582E-2</v>
+        <f>E21</f>
+        <v>1.7986999750137329</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B19-(AVERAGE(B20:B22))</f>
-        <v>1.5700062115987068E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:L23" si="1">C19-(AVERAGE(C20:C22))</f>
-        <v>6.6566665967305427E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>7.8733325004577637E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>9.739995002746582E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.11336660385131836</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13096662362416578</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15843339761098219</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.18099995454152418</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20183328787485766</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22863332430521655</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2494666576385498</v>
-      </c>
       <c r="N23" s="2">
         <v>12</v>
       </c>
       <c r="O23" s="2">
-        <v>0.11336660385131836</v>
+        <f>F21</f>
+        <v>1.8114999532699585</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10169,7 +9976,8 @@
         <v>15</v>
       </c>
       <c r="O24" s="2">
-        <v>0.13096662362416578</v>
+        <f>G21</f>
+        <v>1.8301999568939209</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10177,7 +9985,8 @@
         <v>18</v>
       </c>
       <c r="O25" s="2">
-        <v>0.15843339761098219</v>
+        <f>H21</f>
+        <v>1.8551000356674194</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10185,7 +9994,8 @@
         <v>21</v>
       </c>
       <c r="O26" s="2">
-        <v>0.18099995454152418</v>
+        <f>I21</f>
+        <v>1.8775999546051025</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10193,7 +10003,8 @@
         <v>24</v>
       </c>
       <c r="O27" s="2">
-        <v>0.20183328787485766</v>
+        <f>J21</f>
+        <v>1.8984999656677246</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10201,7 +10012,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="2">
-        <v>0.22863332430521655</v>
+        <f>K21</f>
+        <v>1.9239000082015991</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10209,7 +10021,8 @@
         <v>30</v>
       </c>
       <c r="O29" s="2">
-        <v>0.2494666576385498</v>
+        <f>L21</f>
+        <v>1.944599986076355</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -10253,194 +10066,91 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>2.5199969609578377E-2</v>
+        <f>B37</f>
+        <v>1.7382999658584595</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.7968000173568726</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.8123999834060669</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.8130999803543091</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.7970000505447388</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.794700026512146</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.7969000339508057</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.7950999736785889</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.7973999977111816</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.801300048828125</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1.7972999811172485</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.7989000082015991</v>
-      </c>
       <c r="N36" s="2">
         <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>7.016666730244947E-2</v>
+        <f>C37</f>
+        <v>1.777400016784668</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.5858999490737915</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.5561000108718872</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.5663000345230103</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.5677000284194946</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.5664000511169434</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.5680999755859375</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.5635999441146851</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.5595999956130981</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1.5561000108718872</v>
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B35</f>
+        <v>1.7382999658584595</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:L37" si="2">C35</f>
+        <v>1.777400016784668</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8215999603271484</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8738000392913818</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.913599967956543</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9498000144958496</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9939999580383301</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0344998836517334</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>2.073199987411499</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1157999038696289</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1531999111175537</v>
       </c>
       <c r="N37" s="2">
         <v>6</v>
       </c>
       <c r="O37" s="2">
-        <v>0.11383330821990967</v>
+        <f>D37</f>
+        <v>1.8215999603271484</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.756600022315979</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.7532000541687012</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.743899941444397</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.7391999959945679</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.7332999706268311</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.732699990272522</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.7312999963760376</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.7328000068664551</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1.7317999601364136</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1.7316000461578369</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.7303999662399292</v>
-      </c>
       <c r="N38" s="2">
         <v>9</v>
       </c>
       <c r="O38" s="2">
-        <v>0.17250001430511475</v>
+        <f>E37</f>
+        <v>1.8738000392913818</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <f>B35-(AVERAGE(B36:B38))</f>
-        <v>2.5199969609578377E-2</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:L39" si="2">C35-(AVERAGE(C36:C38))</f>
-        <v>7.016666730244947E-2</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.11383330821990967</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17250001430511475</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21546661853790283</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25056668122609449</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.29733331998189283</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.33789988358815504</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.37653330961863207</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.42053321997324633</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.45806658267974854</v>
-      </c>
       <c r="N39" s="2">
         <v>12</v>
       </c>
       <c r="O39" s="2">
-        <v>0.21546661853790283</v>
+        <f>F37</f>
+        <v>1.913599967956543</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10448,7 +10158,8 @@
         <v>15</v>
       </c>
       <c r="O40" s="2">
-        <v>0.25056668122609449</v>
+        <f>G37</f>
+        <v>1.9498000144958496</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -10456,7 +10167,8 @@
         <v>18</v>
       </c>
       <c r="O41" s="2">
-        <v>0.29733331998189283</v>
+        <f>H37</f>
+        <v>1.9939999580383301</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -10464,7 +10176,8 @@
         <v>21</v>
       </c>
       <c r="O42" s="2">
-        <v>0.33789988358815504</v>
+        <f>I37</f>
+        <v>2.0344998836517334</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -10473,7 +10186,8 @@
         <v>24</v>
       </c>
       <c r="O43" s="2">
-        <v>0.37653330961863207</v>
+        <f>J37</f>
+        <v>2.073199987411499</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -10481,7 +10195,8 @@
         <v>27</v>
       </c>
       <c r="O44" s="2">
-        <v>0.42053321997324633</v>
+        <f>K37</f>
+        <v>2.1157999038696289</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -10489,7 +10204,8 @@
         <v>30</v>
       </c>
       <c r="O45" s="2">
-        <v>0.45806658267974854</v>
+        <f>L37</f>
+        <v>2.1531999111175537</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -10533,194 +10249,91 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>5.6300004323323494E-2</v>
+        <f>B53</f>
+        <v>1.7694000005722046</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.7968000173568726</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.8123999834060669</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.8130999803543091</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.7970000505447388</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.794700026512146</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1.7969000339508057</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.7950999736785889</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1.7973999977111816</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1.801300048828125</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1.7972999811172485</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1.7989000082015991</v>
-      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
       <c r="O52" s="2">
-        <v>9.8466595013936287E-2</v>
+        <f>C53</f>
+        <v>1.8056999444961548</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1.5858999490737915</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.5561000108718872</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.5663000345230103</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.5677000284194946</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.5664000511169434</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.5680999755859375</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.5635999441146851</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1.5595999956130981</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1.5561000108718872</v>
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B51</f>
+        <v>1.7694000005722046</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ref="C53:L53" si="3">C51</f>
+        <v>1.8056999444961548</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8344999551773071</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8603999614715576</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8910000324249268</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.916700005531311</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9499000310897827</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9804999828338623</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0120999813079834</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0455000400543213</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0755000114440918</v>
       </c>
       <c r="N53" s="2">
         <v>6</v>
       </c>
       <c r="O53" s="2">
-        <v>0.12673330307006836</v>
+        <f>D53</f>
+        <v>1.8344999551773071</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1.756600022315979</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.7532000541687012</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.743899941444397</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.7391999959945679</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.7332999706268311</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.732699990272522</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.7312999963760376</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.7328000068664551</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.7317999601364136</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1.7316000461578369</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1.7303999662399292</v>
-      </c>
       <c r="N54" s="2">
         <v>9</v>
       </c>
       <c r="O54" s="2">
-        <v>0.15909993648529053</v>
+        <f>E53</f>
+        <v>1.8603999614715576</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <f>B51-(AVERAGE(B52:B54))</f>
-        <v>5.6300004323323494E-2</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" ref="C55:L55" si="3">C51-(AVERAGE(C52:C54))</f>
-        <v>9.8466595013936287E-2</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.12673330307006836</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.15909993648529053</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19286668300628662</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.21746667226155592</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25323339303334547</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.28389998277028394</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31543330351511645</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.35023335615793871</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38036668300628662</v>
-      </c>
       <c r="N55" s="2">
         <v>12</v>
       </c>
       <c r="O55" s="2">
-        <v>0.19286668300628662</v>
+        <f>F53</f>
+        <v>1.8910000324249268</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -10728,7 +10341,8 @@
         <v>15</v>
       </c>
       <c r="O56" s="2">
-        <v>0.21746667226155592</v>
+        <f>G53</f>
+        <v>1.916700005531311</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -10736,7 +10350,8 @@
         <v>18</v>
       </c>
       <c r="O57" s="2">
-        <v>0.25323339303334547</v>
+        <f>H53</f>
+        <v>1.9499000310897827</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -10744,7 +10359,8 @@
         <v>21</v>
       </c>
       <c r="O58" s="2">
-        <v>0.28389998277028394</v>
+        <f>I53</f>
+        <v>1.9804999828338623</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -10752,7 +10368,8 @@
         <v>24</v>
       </c>
       <c r="O59" s="2">
-        <v>0.31543330351511645</v>
+        <f>J53</f>
+        <v>2.0120999813079834</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -10760,7 +10377,8 @@
         <v>27</v>
       </c>
       <c r="O60" s="2">
-        <v>0.35023335615793871</v>
+        <f>K53</f>
+        <v>2.0455000400543213</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -10768,7 +10386,8 @@
         <v>30</v>
       </c>
       <c r="O61" s="2">
-        <v>0.38036668300628662</v>
+        <f>L53</f>
+        <v>2.0755000114440918</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -10812,194 +10431,91 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>5.8999856313068921E-3</v>
+        <f>B70</f>
+        <v>1.718999981880188</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1.7968000173568726</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.8123999834060669</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.8130999803543091</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.7970000505447388</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.794700026512146</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.7969000339508057</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.7950999736785889</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.7973999977111816</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1.801300048828125</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1.7972999811172485</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1.7989000082015991</v>
-      </c>
       <c r="N69" s="2">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <v>7.8866680463155037E-2</v>
+        <f>C70</f>
+        <v>1.7861000299453735</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1.5858999490737915</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.5561000108718872</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.5663000345230103</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.5677000284194946</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.5664000511169434</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1.5680999755859375</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.5635999441146851</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.5595999956130981</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1.5561000108718872</v>
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <f>B68</f>
+        <v>1.718999981880188</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:L70" si="4">C68</f>
+        <v>1.7861000299453735</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8295999765396118</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8762999773025513</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9285999536514282</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9736000299453735</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0234999656677246</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0687000751495361</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1119000911712646</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1522998809814453</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1867001056671143</v>
       </c>
       <c r="N70" s="2">
         <v>6</v>
       </c>
       <c r="O70" s="2">
-        <v>0.12183332443237305</v>
+        <f>D70</f>
+        <v>1.8295999765396118</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1.756600022315979</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.7532000541687012</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.743899941444397</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.7391999959945679</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.7332999706268311</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1.732699990272522</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1.7312999963760376</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.7328000068664551</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1.7317999601364136</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1.7316000461578369</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1.7303999662399292</v>
-      </c>
       <c r="N71" s="2">
         <v>9</v>
       </c>
       <c r="O71" s="2">
-        <v>0.17499995231628418</v>
+        <f>E70</f>
+        <v>1.8762999773025513</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <f>B68-(AVERAGE(B69:B71))</f>
-        <v>5.8999856313068921E-3</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" ref="C72:L72" si="4">C68-(AVERAGE(C69:C71))</f>
-        <v>7.8866680463155037E-2</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12183332443237305</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17499995231628418</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23046660423278809</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.27436669667561842</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.32683332761128736</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.37210007508595777</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.4152334133783977</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.45703319708506274</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.49156677722930908</v>
-      </c>
       <c r="N72" s="2">
         <v>12</v>
       </c>
       <c r="O72" s="2">
-        <v>0.23046660423278809</v>
+        <f>F70</f>
+        <v>1.9285999536514282</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -11007,7 +10523,8 @@
         <v>15</v>
       </c>
       <c r="O73" s="2">
-        <v>0.27436669667561842</v>
+        <f>G70</f>
+        <v>1.9736000299453735</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -11015,7 +10532,8 @@
         <v>18</v>
       </c>
       <c r="O74" s="2">
-        <v>0.32683332761128736</v>
+        <f>H70</f>
+        <v>2.0234999656677246</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -11023,7 +10541,8 @@
         <v>21</v>
       </c>
       <c r="O75" s="2">
-        <v>0.37210007508595777</v>
+        <f>I70</f>
+        <v>2.0687000751495361</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -11031,7 +10550,8 @@
         <v>24</v>
       </c>
       <c r="O76" s="2">
-        <v>0.4152334133783977</v>
+        <f>J70</f>
+        <v>2.1119000911712646</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -11039,7 +10559,8 @@
         <v>27</v>
       </c>
       <c r="O77" s="2">
-        <v>0.45703319708506274</v>
+        <f>K70</f>
+        <v>2.1522998809814453</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -11047,7 +10568,8 @@
         <v>30</v>
       </c>
       <c r="O78" s="2">
-        <v>0.49156677722930908</v>
+        <f>L70</f>
+        <v>2.1867001056671143</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -11091,194 +10613,91 @@
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>-6.6000024477640862E-2</v>
+        <f>B87</f>
+        <v>1.6470999717712402</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1.7968000173568726</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.8123999834060669</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1.8130999803543091</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1.7970000505447388</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1.794700026512146</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1.7969000339508057</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1.7950999736785889</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1.7973999977111816</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1.801300048828125</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1.7972999811172485</v>
-      </c>
-      <c r="L86" s="1">
-        <v>1.7989000082015991</v>
-      </c>
       <c r="N86" s="2">
         <v>3</v>
       </c>
       <c r="O86" s="2">
-        <v>-3.6233345667521233E-2</v>
+        <f>C87</f>
+        <v>1.6710000038146973</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1.5858999490737915</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.5561000108718872</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1.5663000345230103</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1.5677000284194946</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.5664000511169434</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1.5680999755859375</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.5635999441146851</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.5595999956130981</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1.5569000244140625</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.5561000108718872</v>
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B85</f>
+        <v>1.6470999717712402</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" ref="C87:L87" si="5">C85</f>
+        <v>1.6710000038146973</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6913000345230103</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7253999710083008</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7599999904632568</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7993999719619751</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8380000591278076</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8777999877929687</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9141999483108521</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9470000267028809</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9783999919891357</v>
       </c>
       <c r="N87" s="2">
         <v>6</v>
       </c>
       <c r="O87" s="2">
-        <v>-1.6466617584228516E-2</v>
+        <f>D87</f>
+        <v>1.6913000345230103</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1.756600022315979</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.7532000541687012</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1.743899941444397</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1.7391999959945679</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.7332999706268311</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1.732699990272522</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1.7312999963760376</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1.7328000068664551</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1.7317999601364136</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1.7316000461578369</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1.7303999662399292</v>
-      </c>
       <c r="N88" s="2">
         <v>9</v>
       </c>
       <c r="O88" s="2">
-        <v>2.4099946022033691E-2</v>
+        <f>E87</f>
+        <v>1.7253999710083008</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <f>B85-(AVERAGE(B86:B88))</f>
-        <v>-6.6000024477640862E-2</v>
-      </c>
-      <c r="C89" s="2">
-        <f t="shared" ref="C89:L89" si="5">C85-(AVERAGE(C86:C88))</f>
-        <v>-3.6233345667521233E-2</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.6466617584228516E-2</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="5"/>
-        <v>2.4099946022033691E-2</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="5"/>
-        <v>6.1866641044616699E-2</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.10016663869221998</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.14133342107137037</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.18119998772939039</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.2175332705179851</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.25173334280649828</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.28326666355133057</v>
-      </c>
       <c r="N89" s="2">
         <v>12</v>
       </c>
       <c r="O89" s="2">
-        <v>6.1866641044616699E-2</v>
+        <f>F87</f>
+        <v>1.7599999904632568</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -11286,7 +10705,8 @@
         <v>15</v>
       </c>
       <c r="O90" s="2">
-        <v>0.10016663869221998</v>
+        <f>G87</f>
+        <v>1.7993999719619751</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -11294,7 +10714,8 @@
         <v>18</v>
       </c>
       <c r="O91" s="2">
-        <v>0.14133342107137037</v>
+        <f>H87</f>
+        <v>1.8380000591278076</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -11302,7 +10723,8 @@
         <v>21</v>
       </c>
       <c r="O92" s="2">
-        <v>0.18119998772939039</v>
+        <f>I87</f>
+        <v>1.8777999877929687</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -11310,7 +10732,8 @@
         <v>24</v>
       </c>
       <c r="O93" s="2">
-        <v>0.2175332705179851</v>
+        <f>J87</f>
+        <v>1.9141999483108521</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -11318,7 +10741,8 @@
         <v>27</v>
       </c>
       <c r="O94" s="2">
-        <v>0.25173334280649828</v>
+        <f>K87</f>
+        <v>1.9470000267028809</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -11326,7 +10750,8 @@
         <v>30</v>
       </c>
       <c r="O95" s="2">
-        <v>0.28326666355133057</v>
+        <f>L87</f>
+        <v>1.9783999919891357</v>
       </c>
     </row>
   </sheetData>
@@ -11341,7 +10766,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11387,193 +10812,193 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>91154</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.54E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E3" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F8" si="0">D3-E3</f>
-        <v>1.52E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="G3" s="1">
         <v>6.83E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H8" si="1">F3/G3</f>
-        <v>0.2225475841874085</v>
+        <v>0.21522693997071743</v>
       </c>
       <c r="I3" s="7">
         <v>66.866666666666674</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" ref="J3:J8" si="2">(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>33.282290755843739</v>
+        <v>32.187478559927825</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E4" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>7.1000000000000004E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="G4" s="1">
         <v>6.83E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>0.10395314787701318</v>
+        <v>9.5168374816983897E-2</v>
       </c>
       <c r="I4" s="7">
         <v>66.866666666666674</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="2"/>
-        <v>15.546333182005956</v>
+        <v>14.232558546906862</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>1.44E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E5" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.4199999999999999E-2</v>
+        <v>1.3699999999999999E-2</v>
       </c>
       <c r="G5" s="1">
         <v>6.83E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.20790629575402633</v>
+        <v>0.20058565153733526</v>
       </c>
       <c r="I5" s="7">
         <v>66.866666666666674</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="2"/>
-        <v>31.092666364011908</v>
+        <v>29.997854168095994</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1.06E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E6" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>1.04E-2</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="G6" s="1">
         <v>6.83E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>0.15226939970717424</v>
+        <v>0.14494875549048314</v>
       </c>
       <c r="I6" s="7">
         <v>66.866666666666674</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="2"/>
-        <v>22.772093675050979</v>
+        <v>21.677281479135065</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1.61E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E7" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.5900000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="G7" s="1">
         <v>6.83E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>0.23279648609077599</v>
+        <v>0.22401171303074668</v>
       </c>
       <c r="I7" s="7">
         <v>66.866666666666674</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
-        <v>34.81502783012602</v>
+        <v>33.501253195026919</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>1.21E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E8" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.1899999999999999E-2</v>
+        <v>1.1399999999999999E-2</v>
       </c>
       <c r="G8" s="1">
         <v>6.83E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>0.17423133235724741</v>
+        <v>0.16691068814055635</v>
       </c>
       <c r="I8" s="7">
         <v>66.866666666666674</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>26.056530262798713</v>
+        <v>24.961718066882799</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
